--- a/natmiOut/OldD7/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.4114921836081</v>
+        <v>24.62964533333333</v>
       </c>
       <c r="H2">
-        <v>21.4114921836081</v>
+        <v>73.888936</v>
       </c>
       <c r="I2">
-        <v>0.7739739956128967</v>
+        <v>0.7460691037955391</v>
       </c>
       <c r="J2">
-        <v>0.7739739956128967</v>
+        <v>0.746069103795539</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>65.30832649865179</v>
+        <v>66.04433166666666</v>
       </c>
       <c r="N2">
-        <v>65.30832649865179</v>
+        <v>198.132995</v>
       </c>
       <c r="O2">
-        <v>0.9965320436566409</v>
+        <v>0.9905709103863496</v>
       </c>
       <c r="P2">
-        <v>0.9965320436566409</v>
+        <v>0.9905709103863498</v>
       </c>
       <c r="Q2">
-        <v>1398.348722350409</v>
+        <v>1626.648465227036</v>
       </c>
       <c r="R2">
-        <v>1398.348722350409</v>
+        <v>14639.83618704332</v>
       </c>
       <c r="S2">
-        <v>0.771289887585216</v>
+        <v>0.7390343513578752</v>
       </c>
       <c r="T2">
-        <v>0.771289887585216</v>
+        <v>0.7390343513578752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.4114921836081</v>
+        <v>24.62964533333333</v>
       </c>
       <c r="H3">
-        <v>21.4114921836081</v>
+        <v>73.888936</v>
       </c>
       <c r="I3">
-        <v>0.7739739956128967</v>
+        <v>0.7460691037955391</v>
       </c>
       <c r="J3">
-        <v>0.7739739956128967</v>
+        <v>0.746069103795539</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.227274603558253</v>
+        <v>0.09667466666666667</v>
       </c>
       <c r="N3">
-        <v>0.227274603558253</v>
+        <v>0.290024</v>
       </c>
       <c r="O3">
-        <v>0.003467956343358978</v>
+        <v>0.001449982309679873</v>
       </c>
       <c r="P3">
-        <v>0.003467956343358978</v>
+        <v>0.001449982309679873</v>
       </c>
       <c r="Q3">
-        <v>4.866288397620163</v>
+        <v>2.381062752718222</v>
       </c>
       <c r="R3">
-        <v>4.866288397620163</v>
+        <v>21.429564774464</v>
       </c>
       <c r="S3">
-        <v>0.002684108027680639</v>
+        <v>0.001081787002302249</v>
       </c>
       <c r="T3">
-        <v>0.002684108027680639</v>
+        <v>0.001081787002302249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.76717706712747</v>
+        <v>24.62964533333333</v>
       </c>
       <c r="H4">
-        <v>1.76717706712747</v>
+        <v>73.888936</v>
       </c>
       <c r="I4">
-        <v>0.0638792048621081</v>
+        <v>0.7460691037955391</v>
       </c>
       <c r="J4">
-        <v>0.0638792048621081</v>
+        <v>0.746069103795539</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>65.30832649865179</v>
+        <v>0.02943566666666667</v>
       </c>
       <c r="N4">
-        <v>65.30832649865179</v>
+        <v>0.088307</v>
       </c>
       <c r="O4">
-        <v>0.9965320436566409</v>
+        <v>0.0004414930758175203</v>
       </c>
       <c r="P4">
-        <v>0.9965320436566409</v>
+        <v>0.0004414930758175204</v>
       </c>
       <c r="Q4">
-        <v>115.4113768808907</v>
+        <v>0.7249900301502221</v>
       </c>
       <c r="R4">
-        <v>115.4113768808907</v>
+        <v>6.524910271352</v>
       </c>
       <c r="S4">
-        <v>0.06365767456839783</v>
+        <v>0.0003293843434071133</v>
       </c>
       <c r="T4">
-        <v>0.06365767456839783</v>
+        <v>0.0003293843434071135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.76717706712747</v>
+        <v>24.62964533333333</v>
       </c>
       <c r="H5">
-        <v>1.76717706712747</v>
+        <v>73.888936</v>
       </c>
       <c r="I5">
-        <v>0.0638792048621081</v>
+        <v>0.7460691037955391</v>
       </c>
       <c r="J5">
-        <v>0.0638792048621081</v>
+        <v>0.746069103795539</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.227274603558253</v>
+        <v>0.5025553333333334</v>
       </c>
       <c r="N5">
-        <v>0.227274603558253</v>
+        <v>1.507666</v>
       </c>
       <c r="O5">
-        <v>0.003467956343358978</v>
+        <v>0.007537614228152894</v>
       </c>
       <c r="P5">
-        <v>0.003467956343358978</v>
+        <v>0.007537614228152896</v>
       </c>
       <c r="Q5">
-        <v>0.401634467348632</v>
+        <v>12.37775962037511</v>
       </c>
       <c r="R5">
-        <v>0.401634467348632</v>
+        <v>111.399836583376</v>
       </c>
       <c r="S5">
-        <v>0.0002215302937102755</v>
+        <v>0.005623581091954534</v>
       </c>
       <c r="T5">
-        <v>0.0002215302937102755</v>
+        <v>0.005623581091954534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.11268685285666</v>
+        <v>1.769696333333333</v>
       </c>
       <c r="H6">
-        <v>1.11268685285666</v>
+        <v>5.309089</v>
       </c>
       <c r="I6">
-        <v>0.04022095620363658</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="J6">
-        <v>0.04022095620363658</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>65.30832649865179</v>
+        <v>66.04433166666666</v>
       </c>
       <c r="N6">
-        <v>65.30832649865179</v>
+        <v>198.132995</v>
       </c>
       <c r="O6">
-        <v>0.9965320436566409</v>
+        <v>0.9905709103863496</v>
       </c>
       <c r="P6">
-        <v>0.9965320436566409</v>
+        <v>0.9905709103863498</v>
       </c>
       <c r="Q6">
-        <v>72.66771627712008</v>
+        <v>116.8784115879506</v>
       </c>
       <c r="R6">
-        <v>72.66771627712008</v>
+        <v>1051.905704291555</v>
       </c>
       <c r="S6">
-        <v>0.04008147168343421</v>
+        <v>0.05310130796058871</v>
       </c>
       <c r="T6">
-        <v>0.04008147168343421</v>
+        <v>0.05310130796058872</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.11268685285666</v>
+        <v>1.769696333333333</v>
       </c>
       <c r="H7">
-        <v>1.11268685285666</v>
+        <v>5.309089</v>
       </c>
       <c r="I7">
-        <v>0.04022095620363658</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="J7">
-        <v>0.04022095620363658</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.227274603558253</v>
+        <v>0.09667466666666667</v>
       </c>
       <c r="N7">
-        <v>0.227274603558253</v>
+        <v>0.290024</v>
       </c>
       <c r="O7">
-        <v>0.003467956343358978</v>
+        <v>0.001449982309679873</v>
       </c>
       <c r="P7">
-        <v>0.003467956343358978</v>
+        <v>0.001449982309679873</v>
       </c>
       <c r="Q7">
-        <v>0.2528854633674776</v>
+        <v>0.1710848031262222</v>
       </c>
       <c r="R7">
-        <v>0.2528854633674776</v>
+        <v>1.539763228136</v>
       </c>
       <c r="S7">
-        <v>0.0001394845202023651</v>
+        <v>7.77288696411306E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001394845202023651</v>
+        <v>7.77288696411306E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.37299994063469</v>
+        <v>1.769696333333333</v>
       </c>
       <c r="H8">
-        <v>3.37299994063469</v>
+        <v>5.309089</v>
       </c>
       <c r="I8">
-        <v>0.1219258433213586</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="J8">
-        <v>0.1219258433213586</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>65.30832649865179</v>
+        <v>0.02943566666666667</v>
       </c>
       <c r="N8">
-        <v>65.30832649865179</v>
+        <v>0.088307</v>
       </c>
       <c r="O8">
-        <v>0.9965320436566409</v>
+        <v>0.0004414930758175203</v>
       </c>
       <c r="P8">
-        <v>0.9965320436566409</v>
+        <v>0.0004414930758175204</v>
       </c>
       <c r="Q8">
-        <v>220.2849814029035</v>
+        <v>0.05209219136922222</v>
       </c>
       <c r="R8">
-        <v>220.2849814029035</v>
+        <v>0.468829722323</v>
       </c>
       <c r="S8">
-        <v>0.1215030098195928</v>
+        <v>2.366701821711072E-05</v>
       </c>
       <c r="T8">
-        <v>0.1215030098195928</v>
+        <v>2.366701821711072E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.37299994063469</v>
+        <v>1.769696333333333</v>
       </c>
       <c r="H9">
-        <v>3.37299994063469</v>
+        <v>5.309089</v>
       </c>
       <c r="I9">
-        <v>0.1219258433213586</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="J9">
-        <v>0.1219258433213586</v>
+        <v>0.05360677100832464</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.227274603558253</v>
+        <v>0.5025553333333334</v>
       </c>
       <c r="N9">
-        <v>0.227274603558253</v>
+        <v>1.507666</v>
       </c>
       <c r="O9">
-        <v>0.003467956343358978</v>
+        <v>0.007537614228152894</v>
       </c>
       <c r="P9">
-        <v>0.003467956343358978</v>
+        <v>0.007537614228152896</v>
       </c>
       <c r="Q9">
-        <v>0.7665972243097601</v>
+        <v>0.8893703306971111</v>
       </c>
       <c r="R9">
-        <v>0.7665972243097601</v>
+        <v>8.004332976274</v>
       </c>
       <c r="S9">
-        <v>0.0004228335017656983</v>
+        <v>0.0004040671598776819</v>
       </c>
       <c r="T9">
-        <v>0.0004228335017656983</v>
+        <v>0.0004040671598776819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.275024</v>
+      </c>
+      <c r="H10">
+        <v>3.825072</v>
+      </c>
+      <c r="I10">
+        <v>0.03862239996247084</v>
+      </c>
+      <c r="J10">
+        <v>0.03862239996247083</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>66.04433166666666</v>
+      </c>
+      <c r="N10">
+        <v>198.132995</v>
+      </c>
+      <c r="O10">
+        <v>0.9905709103863496</v>
+      </c>
+      <c r="P10">
+        <v>0.9905709103863498</v>
+      </c>
+      <c r="Q10">
+        <v>84.20810793896</v>
+      </c>
+      <c r="R10">
+        <v>757.87297145064</v>
+      </c>
+      <c r="S10">
+        <v>0.03825822589213045</v>
+      </c>
+      <c r="T10">
+        <v>0.03825822589213046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.275024</v>
+      </c>
+      <c r="H11">
+        <v>3.825072</v>
+      </c>
+      <c r="I11">
+        <v>0.03862239996247084</v>
+      </c>
+      <c r="J11">
+        <v>0.03862239996247083</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.09667466666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.290024</v>
+      </c>
+      <c r="O11">
+        <v>0.001449982309679873</v>
+      </c>
+      <c r="P11">
+        <v>0.001449982309679873</v>
+      </c>
+      <c r="Q11">
+        <v>0.123262520192</v>
+      </c>
+      <c r="R11">
+        <v>1.109362681728</v>
+      </c>
+      <c r="S11">
+        <v>5.60017967029633E-05</v>
+      </c>
+      <c r="T11">
+        <v>5.60017967029633E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.275024</v>
+      </c>
+      <c r="H12">
+        <v>3.825072</v>
+      </c>
+      <c r="I12">
+        <v>0.03862239996247084</v>
+      </c>
+      <c r="J12">
+        <v>0.03862239996247083</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02943566666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.088307</v>
+      </c>
+      <c r="O12">
+        <v>0.0004414930758175203</v>
+      </c>
+      <c r="P12">
+        <v>0.0004414930758175204</v>
+      </c>
+      <c r="Q12">
+        <v>0.037531181456</v>
+      </c>
+      <c r="R12">
+        <v>0.337780633104</v>
+      </c>
+      <c r="S12">
+        <v>1.705152215488573E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.705152215488574E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.275024</v>
+      </c>
+      <c r="H13">
+        <v>3.825072</v>
+      </c>
+      <c r="I13">
+        <v>0.03862239996247084</v>
+      </c>
+      <c r="J13">
+        <v>0.03862239996247083</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5025553333333334</v>
+      </c>
+      <c r="N13">
+        <v>1.507666</v>
+      </c>
+      <c r="O13">
+        <v>0.007537614228152894</v>
+      </c>
+      <c r="P13">
+        <v>0.007537614228152896</v>
+      </c>
+      <c r="Q13">
+        <v>0.640770111328</v>
+      </c>
+      <c r="R13">
+        <v>5.766931001952</v>
+      </c>
+      <c r="S13">
+        <v>0.000291120751482532</v>
+      </c>
+      <c r="T13">
+        <v>0.000291120751482532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.338186666666666</v>
+      </c>
+      <c r="H14">
+        <v>16.01456</v>
+      </c>
+      <c r="I14">
+        <v>0.1617017252336654</v>
+      </c>
+      <c r="J14">
+        <v>0.1617017252336654</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>66.04433166666666</v>
+      </c>
+      <c r="N14">
+        <v>198.132995</v>
+      </c>
+      <c r="O14">
+        <v>0.9905709103863496</v>
+      </c>
+      <c r="P14">
+        <v>0.9905709103863498</v>
+      </c>
+      <c r="Q14">
+        <v>352.556970711911</v>
+      </c>
+      <c r="R14">
+        <v>3173.0127364072</v>
+      </c>
+      <c r="S14">
+        <v>0.1601770251757553</v>
+      </c>
+      <c r="T14">
+        <v>0.1601770251757553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.338186666666666</v>
+      </c>
+      <c r="H15">
+        <v>16.01456</v>
+      </c>
+      <c r="I15">
+        <v>0.1617017252336654</v>
+      </c>
+      <c r="J15">
+        <v>0.1617017252336654</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.09667466666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.290024</v>
+      </c>
+      <c r="O15">
+        <v>0.001449982309679873</v>
+      </c>
+      <c r="P15">
+        <v>0.001449982309679873</v>
+      </c>
+      <c r="Q15">
+        <v>0.5160674166044444</v>
+      </c>
+      <c r="R15">
+        <v>4.64460674944</v>
+      </c>
+      <c r="S15">
+        <v>0.0002344646410335303</v>
+      </c>
+      <c r="T15">
+        <v>0.0002344646410335303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.338186666666666</v>
+      </c>
+      <c r="H16">
+        <v>16.01456</v>
+      </c>
+      <c r="I16">
+        <v>0.1617017252336654</v>
+      </c>
+      <c r="J16">
+        <v>0.1617017252336654</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02943566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.088307</v>
+      </c>
+      <c r="O16">
+        <v>0.0004414930758175203</v>
+      </c>
+      <c r="P16">
+        <v>0.0004414930758175204</v>
+      </c>
+      <c r="Q16">
+        <v>0.1571330833244444</v>
+      </c>
+      <c r="R16">
+        <v>1.41419774992</v>
+      </c>
+      <c r="S16">
+        <v>7.139019203841048E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.139019203841049E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.338186666666666</v>
+      </c>
+      <c r="H17">
+        <v>16.01456</v>
+      </c>
+      <c r="I17">
+        <v>0.1617017252336654</v>
+      </c>
+      <c r="J17">
+        <v>0.1617017252336654</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5025553333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.507666</v>
+      </c>
+      <c r="O17">
+        <v>0.007537614228152894</v>
+      </c>
+      <c r="P17">
+        <v>0.007537614228152896</v>
+      </c>
+      <c r="Q17">
+        <v>2.682734179662222</v>
+      </c>
+      <c r="R17">
+        <v>24.14460761696</v>
+      </c>
+      <c r="S17">
+        <v>0.001218845224838146</v>
+      </c>
+      <c r="T17">
+        <v>0.001218845224838146</v>
       </c>
     </row>
   </sheetData>
